--- a/QNIA/output/QNIA_keyNEW.xlsx
+++ b/QNIA/output/QNIA_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A228B1GVGUCQS.a</t>
+          <t>A144B1GS1CQS.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -469,12 +469,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Services (ISIC Rev.4), National currency, current prices, quarterly levels, seasonally adjusted, Millions of Chilean Peso - Chile</t>
+          <t>Gross domestic product, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Swedish Krona - Sweden</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B1GVG_UCQRSA</t>
+          <t>B1_GS1CQRSA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -483,19 +483,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="J2" t="n">
         <v>2021</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Millions of Chilean Peso</t>
+          <t>Millions of Swedish Krona</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -503,12 +503,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Disposable income, saving and net lending/net borrowing</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -524,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A228B1GVGULQS.a</t>
+          <t>A174RB1GELNQ.a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,12 +539,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Services (ISIC Rev.4), National currency, chained volume estimates, national reference year(2018), quarterly levels, seasonally adjusted, Millions of Chilean Peso - Chile</t>
+          <t>Residual item, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Euro - Greece</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B1GVG_ULNBQRSA</t>
+          <t>RB1_GELNBQR</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="J3" t="n">
         <v>2021</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Millions of Chilean Peso</t>
+          <t>Millions of Euro</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -573,16 +573,16 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="4">
@@ -596,7 +596,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A228B1GVKCQS.a</t>
+          <t>A176P31NCLQS.a</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Financial and insurance activities (ISIC Rev.4), National currency, current prices, quarterly levels, seasonally adjusted, Millions of Chilean Peso - Chile</t>
+          <t>Households consumption expenditure (National Concept), National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B1GVKCQRSA</t>
+          <t>P31NCLNBQRSA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="J4" t="n">
         <v>2021</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Millions of Chilean Peso</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -645,15 +645,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+          <t>Private final consumption expenditure by durability</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -666,7 +668,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A228B1GVMNCQS.a</t>
+          <t>A176P512LQS.a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -681,12 +683,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prof., scientif., techn. activ.; admin., support service activ.(ISIC Rev.4), National currency, current prices, quarterly levels, seasonally adjusted, Millions of Chilean Peso - Chile</t>
+          <t>Intellectual property products, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B1GVM_NCQRSA</t>
+          <t>P51N112LNBQRSA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -695,19 +697,19 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="J5" t="n">
         <v>2021</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Millions of Chilean Peso</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -715,15 +717,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -736,7 +740,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A936P312BCQR.a</t>
+          <t>A176P51N2LQS.a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -751,12 +755,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Semi-durable goods, National currency, current prices, quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Other buildings and structures, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P312BCQR</t>
+          <t>P51N1112LNBQRSA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -772,12 +776,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -785,15 +789,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -806,7 +812,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A936P312BCQS.a</t>
+          <t>A176P51N31LQS.a</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -821,12 +827,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Semi-durable goods, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>Transport equipment, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P312BCQRSA</t>
+          <t>P51N11131LNBQRSA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -842,12 +848,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -855,15 +861,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -876,7 +884,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A936P312BLNQ.a</t>
+          <t>A176P51N3ICQS.a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -891,12 +899,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Semi-durable goods, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>ICT equipment, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P312BLNBQR</t>
+          <t>P51N1113ICQRSA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -912,12 +920,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -925,17 +933,15 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>2015</v>
-      </c>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -948,7 +954,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A936P312BLQS.a</t>
+          <t>A176P51N3ILQS.a</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -963,12 +969,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Semi-durable goods, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>ICT equipment, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>P312BLNBQRSA</t>
+          <t>P51N1113ILNBQRSA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -984,12 +990,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -997,12 +1003,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1020,7 +1026,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A936P313BCQR.a</t>
+          <t>A176P51N3LQS.a</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1035,12 +1041,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Non-durable goods, National currency, current prices, quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Machinery and equipment+weapon system, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P313BCQR</t>
+          <t>P51N1113LNBQRSA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1056,12 +1062,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1069,15 +1075,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1090,7 +1098,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A936P313BCQS.a</t>
+          <t>A176P51N3OLQS.a</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1105,12 +1113,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Non-durable goods, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>Other machinery and equipment+weapon systems, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P313BCQRSA</t>
+          <t>P51N1113OLNBQRSA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1126,12 +1134,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1139,15 +1147,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1160,7 +1170,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A936P313BLNQ.a</t>
+          <t>A176P51N4LQS.a</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1175,12 +1185,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Non-durable goods, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Cultivated biological resources, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P313BLNBQR</t>
+          <t>P51N1114LNBQRSA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1196,12 +1206,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1209,12 +1219,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1232,7 +1242,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A936P313BLQS.a</t>
+          <t>A176P5LQS.a</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1247,12 +1257,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Non-durable goods, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>Gross capital formation, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>P313BLNBQRSA</t>
+          <t>P5LNBQRSA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1268,12 +1278,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1281,12 +1291,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1304,7 +1314,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A936P314BCQR.a</t>
+          <t>A176RB1GELQS.a</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1319,12 +1329,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Services, National currency, current prices, quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Residual item, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>P314BCQR</t>
+          <t>RB1_GELNBQRSA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1340,12 +1350,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1353,15 +1363,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1374,48 +1386,52 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A936P314BCQS.a</t>
+          <t>Q176P315LQS.q</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DB_A_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>data014</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Services, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>P314BCQRSA</t>
+          <t>P31S15LNBQRSA</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1995</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2021</v>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1423,15 +1439,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1444,48 +1462,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A936P314BLNQ.a</t>
+          <t>Q176P31NCLQS.q</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DB_A_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>data015</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Services, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Households consumption expenditure (National Concept), National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>P314BLNBQR</t>
+          <t>P31NCLNBQRSA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1995</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2021</v>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1493,7 +1515,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1516,48 +1538,52 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A936P314BLQS.a</t>
+          <t>Q176P31S14LQS.q</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DB_A_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>data016</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Services, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>Final consumption expenditure of households, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>P314BLNBQRSA</t>
+          <t>P31S14LNBQRSA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1995</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2021</v>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1565,12 +1591,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1588,7 +1614,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q228B1GVGUCQS.q</t>
+          <t>Q176P41LQS.q</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1598,17 +1624,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Services (ISIC Rev.4), National currency, current prices, quarterly levels, seasonally adjusted, Millions of Chilean Peso - Chile</t>
+          <t>add. Actual individual consumption, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>B1GVG_UCQRSA</t>
+          <t>P41LNBQRSA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1618,22 +1644,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2013-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Millions of Chilean Peso</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1641,15 +1667,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1662,7 +1690,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q228B1GVGULQS.q</t>
+          <t>Q176P512LQS.q</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1672,17 +1700,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data005</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Services (ISIC Rev.4), National currency, chained volume estimates, national reference year(2018), quarterly levels, seasonally adjusted, Millions of Chilean Peso - Chile</t>
+          <t>Intellectual property products, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B1GVG_ULNBQRSA</t>
+          <t>P51N112LNBQRSA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1692,22 +1720,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2014-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Millions of Chilean Peso</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1715,16 +1743,16 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="20">
@@ -1738,7 +1766,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q936P312BCQR.q</t>
+          <t>Q176P51N2LQS.q</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1748,17 +1776,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Semi-durable goods, National currency, current prices, quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Other buildings and structures, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>P312BCQR</t>
+          <t>P51N1112LNBQRSA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1773,17 +1801,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1791,15 +1819,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1812,7 +1842,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q936P312BCQS.q</t>
+          <t>Q176P51N31LQS.q</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1822,17 +1852,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Semi-durable goods, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>Transport equipment, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P312BCQRSA</t>
+          <t>P51N11131LNBQRSA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1847,17 +1877,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1865,15 +1895,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1886,7 +1918,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q936P312BLNQ.q</t>
+          <t>Q176P51N3ICQS.q</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1896,17 +1928,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data008</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Semi-durable goods, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>ICT equipment, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>P312BLNBQR</t>
+          <t>P51N1113ICQRSA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1921,17 +1953,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1939,17 +1971,15 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>2015</v>
-      </c>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1962,7 +1992,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q936P312BLQS.q</t>
+          <t>Q176P51N3ILQS.q</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1972,17 +2002,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data009</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Semi-durable goods, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>ICT equipment, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>P312BLNBQRSA</t>
+          <t>P51N1113ILNBQRSA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1997,17 +2027,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2015,12 +2045,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2038,7 +2068,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q936P313BCQR.q</t>
+          <t>Q176P51N3LQS.q</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2048,17 +2078,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>data007</t>
+          <t>data010</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Non-durable goods, National currency, current prices, quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Machinery and equipment+weapon system, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>P313BCQR</t>
+          <t>P51N1113LNBQRSA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2073,17 +2103,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2091,15 +2121,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2112,7 +2144,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q936P313BCQS.q</t>
+          <t>Q176P51N3OLQS.q</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2122,17 +2154,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>data008</t>
+          <t>data011</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Non-durable goods, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>Other machinery and equipment+weapon systems, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>P313BCQRSA</t>
+          <t>P51N1113OLNBQRSA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2147,17 +2179,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -2165,15 +2197,17 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2186,7 +2220,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q936P313BLNQ.q</t>
+          <t>Q176P51N4LQS.q</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2196,17 +2230,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>data009</t>
+          <t>data012</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Non-durable goods, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Cultivated biological resources, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>P313BLNBQR</t>
+          <t>P51N1114LNBQRSA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2221,17 +2255,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -2239,12 +2273,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2262,7 +2296,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q936P313BLQS.q</t>
+          <t>Q176P5LQS.q</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2272,17 +2306,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>data010</t>
+          <t>data013</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Non-durable goods, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
+          <t>Gross capital formation, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>P313BLNBQRSA</t>
+          <t>P5LNBQRSA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2297,17 +2331,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2315,12 +2349,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2338,7 +2372,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q936P314BCQR.q</t>
+          <t>Q176RB1GELQS.q</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2348,17 +2382,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>data011</t>
+          <t>data014</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Services, National currency, current prices, quarterly levels, Millions of Euro - Slovak Republic</t>
+          <t>Residual item, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Iceland Krona - Iceland</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>P314BCQR</t>
+          <t>RB1_GELNBQRSA</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2373,17 +2407,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Iceland Krona</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2391,239 +2425,15 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Q936P314BCQS.q</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>data012</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Services, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>P314BCQRSA</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Millions of Euro</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>28</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Slovak Republic</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Q936P314BLNQ.q</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>data013</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Services, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Euro - Slovak Republic</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>P314BLNBQR</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Millions of Euro</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>29</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Slovak Republic</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Q936P314BLQS.q</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>data014</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Services, National currency, chained volume estimates, national reference year(2015), quarterly levels, seasonally adjusted, Millions of Euro - Slovak Republic</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>P314BLNBQRSA</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Millions of Euro</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>30</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Slovak Republic</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Private final consumption expenditure by durability</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
         <v>2015</v>
       </c>
     </row>

--- a/QNIA/output/QNIA_keyNEW.xlsx
+++ b/QNIA/output/QNIA_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A182B1GVGULNQ.a</t>
+          <t>Q542P3P51CTS.q</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB_A_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,33 +469,37 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Services (ISIC Rev.4), National currency, chained volume estimates, national reference year(2016), quarterly levels, Millions of Euro - Portugal</t>
+          <t>add. Final domestic demand, Contributions to Q-o-Q GDP growth, seasonally adjusted, Units of Won - Korea</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B1GVG_ULNBQR</t>
+          <t>P3_P51CTQRGPSA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1995</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2021</v>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Units of Won</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -503,317 +507,15 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A196P3P5LNQ.a</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DB_A_0001</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>data002</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>add. Total domestic demand, National currency, chained volume estimates, national reference year(2009-10), quarterly levels, Millions of New Zealand Dollar - New Zealand</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>P3_P5LNBQR</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1988</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Millions of New Zealand Dollar</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NZL</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
           <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2009-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A223B1GVGULQS.a</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DB_A_0001</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>data003</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Services (ISIC Rev.4), National currency, chained volume estimates, national reference year(1995), quarterly levels, seasonally adjusted, Millions of Brazilian Real - Brazil</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B1GVG_ULNBQRSA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1996</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2019</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Millions of Brazilian Real</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>BRA</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Q182B1GVGULNQ.q</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>data001</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Services (ISIC Rev.4), National currency, chained volume estimates, national reference year(2016), quarterly levels, Millions of Euro - Portugal</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B1GVG_ULNBQR</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1996-Q1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Millions of Euro</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>PRT</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Q196P3P5LNQ.q</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>data002</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>add. Total domestic demand, National currency, chained volume estimates, national reference year(2009-10), quarterly levels, Millions of New Zealand Dollar - New Zealand</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>P3_P5LNBQR</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1989-Q1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Millions of New Zealand Dollar</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NZL</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2009-10</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/QNIA/output/QNIA_keyNEW.xlsx
+++ b/QNIA/output/QNIA_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q542P3P51CTS.q</t>
+          <t>A124B6NS1CQS.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,37 +469,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>add. Final domestic demand, Contributions to Q-o-Q GDP growth, seasonally adjusted, Units of Won - Korea</t>
+          <t>Net national disposable income, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Belgium</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P3_P51CTQRGPSA</t>
+          <t>B6NS1CQRSA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2022-Q3</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2021</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Units of Won</t>
+          <t>Millions of Euro</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -507,15 +503,8055 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A124D5D7FRCQS.a</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Current transfers receivable from the rest of the world, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Belgium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D5_D7FRS2CQRSA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A124D5D7NFCQS.a</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Net current transfers from the rest of the world, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Belgium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D5_D7NFRS2CQRSA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A124D5D7TOCQS.a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Current transfers payable to the rest of the world, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Belgium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D5_D7TOS2CQRSA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A124RB1GS1CQS.a</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Residual item, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Belgium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>RB1_GS1CQRSA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A136B8NS1CQR.a</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Net saving, National currency, current prices, quarterly levels, Millions of Euro - Italy</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>B8NS1CQR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A136B8NS1CQS.a</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Net saving, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Italy</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B8NS1CQRSA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A136B9S1CQR.a</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Net lending/net borrowing, National currency, current prices, quarterly levels, Millions of Euro - Italy</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>B9S1CQR</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A136B9S1CQS.a</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Net lending/net borrowing, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Italy</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>B9S1CQRSA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A163P315CQR.a</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P31S15CQR</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A163P315CQS.a</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>P31S15CQRSA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A163P31S13CQR.a</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Individual consumption expenditure of general government, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>P31S13CQR</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A163P31S13CQS.a</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Individual consumption expenditure of general government, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>P31S13CQRSA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A163P31S14CQR.a</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of households, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P31S14CQR</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A163P31S14CQS.a</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of households, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P31S14CQRSA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A163P32S13CQR.a</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Collective consumption expenditure of general government, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>P32S13CQR</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A163P32S13CQS.a</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Collective consumption expenditure of general government, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>P32S13CQRSA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A163P512CQR.a</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Intellectual property products, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>P51N112CQR</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A163P512CQS.a</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Intellectual property products, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>P51N112CQRSA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>19</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A163P512LNQ.a</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Intellectual property products, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>P51N112LNBQR</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A163P512LQS.a</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>data021</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Intellectual property products, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>P51N112LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>21</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A163P51ACQR.a</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>data022</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation by asset, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>P51ACQR</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>22</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A163P51ACQS.a</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>data023</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation by asset, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>P51ACQRSA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>23</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A163P51ALNQ.a</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>data024</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation by asset, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>P51ALNBQR</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>24</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A163P51ALQS.a</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>data025</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation by asset, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>P51ALNBQRSA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>25</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A163P51N1CQR.a</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>data026</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Dwellings, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>P51N1111CQR</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>26</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A163P51N1CQS.a</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>data027</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Dwellings, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>P51N1111CQRSA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>27</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A163P51N1LNQ.a</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>data028</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Dwellings, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>P51N1111LNBQR</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>28</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A163P51N1LQS.a</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>data029</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dwellings, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>P51N1111LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>29</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A163P51N2CQR.a</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>data030</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Other buildings and structures, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>P51N1112CQR</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A163P51N2CQS.a</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>data031</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Other buildings and structures, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>P51N1112CQRSA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>31</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A163P51N2LNQ.a</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>data032</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Other buildings and structures, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>P51N1112LNBQR</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>32</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A163P51N2LQS.a</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>data033</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Other buildings and structures, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>P51N1112LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>33</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A163P51N31CQR.a</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>data034</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Transport equipment, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>P51N11131CQR</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>34</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A163P51N31CQS.a</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>data035</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Transport equipment, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>P51N11131CQRSA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>35</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A163P51N31LNQ.a</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>data036</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Transport equipment, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>P51N11131LNBQR</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>36</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A163P51N31LQS.a</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>data037</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Transport equipment, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>P51N11131LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>37</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A163P51N3CQR.a</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>data038</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Machinery and equipment+weapon system, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>P51N1113CQR</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>38</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A163P51N3CQS.a</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>data039</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Machinery and equipment+weapon system, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>P51N1113CQRSA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>39</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A163P51N3ICQR.a</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>data040</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ICT equipment, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>P51N1113ICQR</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>40</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A163P51N3ICQS.a</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>data041</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ICT equipment, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>P51N1113ICQRSA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>41</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A163P51N3LNQ.a</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>data042</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Machinery and equipment+weapon system, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>P51N1113LNBQR</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>42</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A163P51N3LQS.a</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>data043</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Machinery and equipment+weapon system, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>P51N1113LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>43</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A163P51N3OCQR.a</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>data044</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Other machinery and equipment+weapon systems, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>P51N1113OCQR</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>44</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A163P51N3OCQS.a</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>data045</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Other machinery and equipment+weapon systems, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>P51N1113OCQRSA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>45</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A163P51N4CQR.a</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>data046</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Cultivated biological resources, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>P51N1114CQR</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>46</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A163P51N4CQS.a</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>data047</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Cultivated biological resources, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>P51N1114CQRSA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>47</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A163P51N4LNQ.a</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>data048</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cultivated biological resources, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>P51N1114LNBQR</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>48</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A163P51N4LQS.a</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>data049</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Cultivated biological resources, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>P51N1114LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>49</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A727P315CQR.a</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>data050</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>P31S15CQR</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>50</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A727P315CQS.a</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>data051</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>P31S15CQRSA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>51</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A727P31S13CQR.a</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>data052</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Individual consumption expenditure of general government, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>P31S13CQR</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>52</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A727P31S14CQR.a</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>data053</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of households, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>P31S14CQR</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>53</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A727P31S14CQS.a</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>data054</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of households, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>P31S14CQRSA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>54</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A727P32S13CQR.a</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>data055</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Collective consumption expenditure of general government, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>P32S13CQR</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>55</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A727P51N3ICQR.a</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>data056</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ICT equipment, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>P51N1113ICQR</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>56</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A727P51N3ICQS.a</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>data057</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ICT equipment, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>P51N1113ICQRSA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>57</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A727P51N3OCQR.a</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>data058</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Other machinery and equipment+weapon systems, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>P51N1113OCQR</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>58</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A727P51N3OCQS.a</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>data059</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Other machinery and equipment+weapon systems, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>P51N1113OCQRSA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>59</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q124B5NS1LNQ.q</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Net national income at market prices, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Euro - Belgium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>B5_NS1LNBQR</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>60</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q163P315CQR.q</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>P31S15CQR</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>61</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Q163P315CQS.q</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>P31S15CQRSA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>62</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q163P31S13CQR.q</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Individual consumption expenditure of general government, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>P31S13CQR</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>63</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Q163P31S13CQS.q</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Individual consumption expenditure of general government, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>P31S13CQRSA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>64</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Q163P31S14CQR.q</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of households, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>P31S14CQR</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>65</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Q163P31S14CQS.q</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of households, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>P31S14CQRSA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>66</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Q163P32S13CQR.q</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Collective consumption expenditure of general government, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>P32S13CQR</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>67</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Q163P32S13CQS.q</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Collective consumption expenditure of general government, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>P32S13CQRSA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>68</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Q163P512CQR.q</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Intellectual property products, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>P51N112CQR</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>69</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Q163P512CQS.q</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Intellectual property products, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>P51N112CQRSA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Q163P512LNQ.q</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Intellectual property products, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>P51N112LNBQR</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>71</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Q163P512LQS.q</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Intellectual property products, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>P51N112LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>72</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Q163P51ACQR.q</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation by asset, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>P51ACQR</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>73</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Q163P51ACQS.q</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation by asset, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>P51ACQRSA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>74</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Q163P51ALNQ.q</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation by asset, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>P51ALNBQR</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>75</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Q163P51ALQS.q</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation by asset, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>P51ALNBQRSA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>76</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Q163P51N1CQR.q</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Dwellings, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>P51N1111CQR</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>77</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Q163P51N1CQS.q</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Dwellings, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>P51N1111CQRSA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>78</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Q163P51N1LNQ.q</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Dwellings, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>P51N1111LNBQR</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>79</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Q163P51N1LQS.q</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>data021</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Dwellings, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>P51N1111LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>80</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Q163P51N2CQR.q</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>data022</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Other buildings and structures, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>P51N1112CQR</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>81</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Q163P51N2CQS.q</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>data023</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Other buildings and structures, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>P51N1112CQRSA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>82</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Q163P51N2LNQ.q</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>data024</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Other buildings and structures, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>P51N1112LNBQR</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>83</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Q163P51N2LQS.q</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>data025</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Other buildings and structures, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>P51N1112LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>84</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Q163P51N31CQR.q</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>data026</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Transport equipment, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>P51N11131CQR</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>85</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Q163P51N31CQS.q</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>data027</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Transport equipment, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>P51N11131CQRSA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>86</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Q163P51N31LNQ.q</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>data028</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Transport equipment, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>P51N11131LNBQR</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>87</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Q163P51N31LQS.q</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>data029</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Transport equipment, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>P51N11131LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>88</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Q163P51N3CQR.q</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>data030</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Machinery and equipment+weapon system, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>P51N1113CQR</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>89</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Q163P51N3CQS.q</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>data031</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Machinery and equipment+weapon system, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>P51N1113CQRSA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>90</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Q163P51N3ICQR.q</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>data032</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ICT equipment, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>P51N1113ICQR</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>91</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Q163P51N3ICQS.q</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>data033</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ICT equipment, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>P51N1113ICQRSA</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>92</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Q163P51N3LNQ.q</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>data034</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Machinery and equipment+weapon system, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>P51N1113LNBQR</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>93</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Q163P51N3LQS.q</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>data035</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Machinery and equipment+weapon system, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>P51N1113LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>94</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Q163P51N3OCQR.q</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>data036</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Other machinery and equipment+weapon systems, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>P51N1113OCQR</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>95</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Q163P51N3OCQS.q</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>data037</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Other machinery and equipment+weapon systems, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>P51N1113OCQRSA</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>96</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Q163P51N4CQR.q</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>data038</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Cultivated biological resources, National currency, current prices, quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>P51N1114CQR</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>97</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Q163P51N4CQS.q</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>data039</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Cultivated biological resources, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>P51N1114CQRSA</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>98</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Q163P51N4LNQ.q</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>data040</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Cultivated biological resources, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>P51N1114LNBQR</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>99</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Q163P51N4LQS.q</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>data041</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Cultivated biological resources, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - Euro area</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>P51N1114LNBQRSA</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>EA19</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>100</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Euro area</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Q727P315CQR.q</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>data042</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>P31S15CQR</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>101</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Q727P315CQS.q</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>data043</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>P31S15CQRSA</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>102</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Q727P31S13CQR.q</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>data044</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Individual consumption expenditure of general government, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>P31S13CQR</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>103</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Q727P31S13CQS.q</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>data045</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Individual consumption expenditure of general government, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>P31S13CQRSA</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>104</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Q727P31S14CQR.q</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>data046</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of households, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>P31S14CQR</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>105</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Q727P31S14CQS.q</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>data047</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure of households, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>P31S14CQRSA</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>106</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Q727P32S13CQR.q</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>data048</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Collective consumption expenditure of general government, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>P32S13CQR</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>107</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Q727P32S13CQS.q</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>data049</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Collective consumption expenditure of general government, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>P32S13CQRSA</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>108</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Q727P51N3ICQR.q</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>data050</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ICT equipment, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>P51N1113ICQR</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>109</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Q727P51N3ICQS.q</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>data051</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ICT equipment, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>P51N1113ICQRSA</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>110</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Q727P51N3OCQR.q</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>data052</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Other machinery and equipment+weapon systems, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>P51N1113OCQR</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>111</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Q727P51N3OCQS.q</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>data053</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Other machinery and equipment+weapon systems, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>P51N1113OCQRSA</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>112</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation (GFCF) by asset</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/QNIA/output/QNIA_keyNEW.xlsx
+++ b/QNIA/output/QNIA_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q273B1GVFVNS.q</t>
+          <t>A727P31S13LNQ.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,37 +469,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Construction (ISIC Rev.4), National currency, constant prices, national base year(2018), annual levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
+          <t>Individual consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B1GVFVNBARSA</t>
+          <t>P31S13LNBQR</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2022</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Millions of Mexican Peso</t>
+          <t>Millions of Euro</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>EU27_2020</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -507,16 +503,16 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2018</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="3">
@@ -530,12 +526,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q273B1GVFVQS.q</t>
+          <t>A727P32S13LNQ.a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,37 +541,33 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Construction (ISIC Rev.4), National currency, constant prices, national base year(2018), quarterly levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
+          <t>Collective consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B1GVFVNBQRSA</t>
+          <t>P32S13LNBQR</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2022</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Millions of Mexican Peso</t>
+          <t>Millions of Euro</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>EU27_2020</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -583,16 +575,16 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2018</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +598,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q273B1GVGIVNS.q</t>
+          <t>Q727P31S13LNQ.q</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -616,17 +608,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Distrib. trade, repairs; transp.; accommod., food serv. activ. (ISIC Rev.4), National currency, constant prices, national base year(2018), annual levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
+          <t>Individual consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B1GVG_IVNBARSA</t>
+          <t>P31S13LNBQR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -636,7 +628,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1993-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -646,12 +638,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Millions of Mexican Peso</t>
+          <t>Millions of Euro</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>EU27_2020</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -659,16 +651,16 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2018</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="5">
@@ -682,7 +674,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q273B1GVGIVQS.q</t>
+          <t>Q727P31S13LQS.q</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -692,17 +684,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Distrib. trade, repairs; transp.; accommod., food serv. activ. (ISIC Rev.4), National currency, constant prices, national base year(2018), quarterly levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
+          <t>Individual consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B1GVG_IVNBQRSA</t>
+          <t>P31S13LNBQRSA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -712,7 +704,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2020-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -722,12 +714,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Millions of Mexican Peso</t>
+          <t>Millions of Euro</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>EU27_2020</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -735,16 +727,16 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2018</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="6">
@@ -758,7 +750,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q273B1GVJVNS.q</t>
+          <t>Q727P32S13LNQ.q</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,17 +760,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Information and communication (ISIC Rev.4), National currency, constant prices, national base year(2018), annual levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
+          <t>Collective consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B1GVJVNBARSA</t>
+          <t>P32S13LNBQR</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -788,7 +780,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1993-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -798,12 +790,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Millions of Mexican Peso</t>
+          <t>Millions of Euro</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>EU27_2020</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -811,16 +803,16 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2018</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="7">
@@ -834,7 +826,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q273B1GVJVQS.q</t>
+          <t>Q727P32S13LQS.q</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -844,17 +836,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Information and communication (ISIC Rev.4), National currency, constant prices, national base year(2018), quarterly levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
+          <t>Collective consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B1GVJVNBQRSA</t>
+          <t>P32S13LNBQRSA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -864,7 +856,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2020-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -874,12 +866,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Millions of Mexican Peso</t>
+          <t>Millions of Euro</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>EU27_2020</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -887,624 +879,16 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Gross domestic product at market prices - output approach</t>
+          <t>Gross domestic product - expenditure approach</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Q273B1GVKVNS.q</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>data007</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Financial and insurance activities (ISIC Rev.4), National currency, constant prices, national base year(2018), annual levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B1GVKVNBARSA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Millions of Mexican Peso</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Q273B1GVKVQS.q</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>data008</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Financial and insurance activities (ISIC Rev.4), National currency, constant prices, national base year(2018), quarterly levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B1GVKVNBQRSA</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Millions of Mexican Peso</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Q273B1GVLVNS.q</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>data009</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Real estate activities (ISIC Rev.4), National currency, constant prices, national base year(2018), annual levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B1GVLVNBARSA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Millions of Mexican Peso</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>9</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Q273B1GVLVQS.q</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>data010</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Real estate activities (ISIC Rev.4), National currency, constant prices, national base year(2018), quarterly levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B1GVLVNBQRSA</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Millions of Mexican Peso</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Q273B1GVMNVNS.q</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>data011</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Prof., scientif., techn. activ.; admin., support service activ.(ISIC Rev.4), National currency, constant prices, national base year(2018), annual levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B1GVM_NVNBARSA</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Millions of Mexican Peso</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>11</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Q273B1GVMNVQS.q</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>data012</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Prof., scientif., techn. activ.; admin., support service activ.(ISIC Rev.4), National currency, constant prices, national base year(2018), quarterly levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B1GVM_NVNBQRSA</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Millions of Mexican Peso</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>12</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Q273B1GVRUVNS.q</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>data013</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Other service activities (ISIC Rev.4), National currency, constant prices, national base year(2018), annual levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B1GVR_UVNBARSA</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Millions of Mexican Peso</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>13</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Q273B1GVRUVQS.q</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>data014</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Other service activities (ISIC Rev.4), National currency, constant prices, national base year(2018), quarterly levels, seasonally adjusted, Millions of Mexican Peso - Mexico</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B1GVR_UVNBQRSA</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Millions of Mexican Peso</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>MEX</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>14</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Gross domestic product at market prices - output approach</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>2018</v>
+        <v>2005</v>
       </c>
     </row>
   </sheetData>

--- a/QNIA/output/QNIA_keyNEW.xlsx
+++ b/QNIA/output/QNIA_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A727P31S13LNQ.a</t>
+          <t>A727D2S1CQR.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -469,12 +469,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Individual consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Taxes on production and imports, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P31S13LNBQR</t>
+          <t>D2S1CQR</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -508,12 +508,10 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>2005</v>
-      </c>
+          <t>Gross domestic product - income approach</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -526,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A727P32S13LNQ.a</t>
+          <t>A727D2S1CQS.a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -541,12 +539,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Collective consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Taxes on production and imports, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>P32S13LNBQR</t>
+          <t>D2S1CQRSA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -580,12 +578,10 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>2005</v>
-      </c>
+          <t>Gross domestic product - income approach</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -598,43 +594,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q727P31S13LNQ.q</t>
+          <t>A727D3S1CQR.a</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Individual consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Subsidies on production and imports, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P31S13LNBQR</t>
+          <t>D3S1CQR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2022</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -656,12 +648,10 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>2005</v>
-      </c>
+          <t>Gross domestic product - income approach</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -674,43 +664,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q727P31S13LQS.q</t>
+          <t>A727D3S1CQS.a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Individual consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Subsidies on production and imports, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P31S13LNBQRSA</t>
+          <t>D3S1CQRSA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2022</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -732,12 +718,10 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>2005</v>
-      </c>
+          <t>Gross domestic product - income approach</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -750,7 +734,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q727P32S13LNQ.q</t>
+          <t>Q456B11VQS.q</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -760,17 +744,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Collective consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>External balance of goods and services, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P32S13LNBQR</t>
+          <t>B11VNBQRSA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -780,22 +764,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1995-Q1</t>
+          <t>2010-Q1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-Q3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Saudi Riyal</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -803,7 +787,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -812,7 +796,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2005</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="7">
@@ -826,7 +810,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q727P32S13LQS.q</t>
+          <t>Q456P3145GCU.q</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -836,17 +820,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Collective consumption expenditure of general government, National currency, chained volume estimates, national reference year(2005), quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Private final consumption expenditure, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P32S13LNBQRSA</t>
+          <t>P31S14_S15GCUMSA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -856,22 +840,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1995-Q1</t>
+          <t>2020-Q1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-Q3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Units of Percentage</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -879,17 +863,1215 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Q456P3145VQS.q</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Private final consumption expenditure, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>P31S14_S15VNBQRSA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Millions of Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Q456P3S13GCU.q</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>General government final consumption expenditure, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P3S13GCUMSA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Q456P3S13VQS.q</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>General government final consumption expenditure, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>P3S13VNBQRSA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Millions of Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Q456P3VQS.q</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Final consumption expenditure, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P3VNBQRSA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Millions of Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Q456P51GCU.q</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>P51GCUMSA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Q456P51VQS.q</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>P51VNBQRSA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Millions of Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Q456P52P53VQS.q</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Changes in inventories and acquisitions less disposals of valuables, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>P52_P53VNBQRSA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Millions of Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Q456P5VQS.q</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Gross capital formation, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P5VNBQRSA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Millions of Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Q456P6GCU.q</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Exports of goods and services, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P6GCUMSA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Q456P6VQS.q</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Exports of goods and services, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>P6VNBQRSA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Millions of Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Q456P7GCU.q</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Imports of goods and services, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>P7GCUMSA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Q456P7VQS.q</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Imports of goods and services, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>P7VNBQRSA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Millions of Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Gross domestic product - expenditure approach</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Q727D2S1CQR.q</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Taxes on production and imports, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>D2S1CQR</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>19</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>2005</v>
-      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Gross domestic product - income approach</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Q727D2S1CQS.q</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Taxes on production and imports, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>D2S1CQRSA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Gross domestic product - income approach</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Q727D3S1CQR.q</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Subsidies on production and imports, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>D3S1CQR</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>21</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Gross domestic product - income approach</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QNIA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Q727D3S1CQS.q</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Subsidies on production and imports, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>D3S1CQRSA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Millions of Euro</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>22</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Gross domestic product - income approach</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/QNIA/output/QNIA_keyNEW.xlsx
+++ b/QNIA/output/QNIA_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A727D2S1CQR.a</t>
+          <t>A918P3145BCQR.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -469,12 +469,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Taxes on production and imports, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Private final consumption expenditure by durability, National currency, current prices, quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>D2S1CQR</t>
+          <t>P31S14_S15BCQR</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -490,12 +490,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -503,12 +503,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Gross domestic product - income approach</t>
+          <t>Private final consumption expenditure by durability</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -524,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A727D2S1CQS.a</t>
+          <t>A918P3145BLNQ.a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,12 +539,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taxes on production and imports, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Private final consumption expenditure by durability, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D2S1CQRSA</t>
+          <t>P31S14_S15BLNBQR</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -573,15 +573,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Gross domestic product - income approach</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+          <t>Private final consumption expenditure by durability</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -594,7 +596,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A727D3S1CQR.a</t>
+          <t>A918P315BCQR.a</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -609,12 +611,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Subsidies on production and imports, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>D3S1CQR</t>
+          <t>P31S15BCQR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -630,12 +632,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -643,12 +645,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Gross domestic product - income approach</t>
+          <t>Private final consumption expenditure by durability</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -664,7 +666,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A727D3S1CQS.a</t>
+          <t>A918P315BLNQ.a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -679,12 +681,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Subsidies on production and imports, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>D3S1CQRSA</t>
+          <t>P31S15BLNBQR</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -700,12 +702,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Millions of Euro</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -713,15 +715,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Gross domestic product - income approach</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+          <t>Private final consumption expenditure by durability</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -734,52 +738,48 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q456B11VQS.q</t>
+          <t>A918P31NCCQR.a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>External balance of goods and services, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+          <t>Households consumption expenditure (National Concept), National currency, current prices, quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B11VNBQRSA</t>
+          <t>P31NCCQR</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2022</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Millions of Saudi Riyal</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -787,17 +787,15 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>2010</v>
-      </c>
+          <t>Private final consumption expenditure by durability</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -810,52 +808,48 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q456P3145GCU.q</t>
+          <t>A918P31NCLNQ.a</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
+          <t>Households consumption expenditure (National Concept), National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P31S14_S15GCUMSA</t>
+          <t>P31NCLNBQR</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2022</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -863,15 +857,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+          <t>Private final consumption expenditure by durability</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -884,52 +880,48 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q456P3145VQS.q</t>
+          <t>A918P3S1CQR.a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Private final consumption expenditure, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+          <t>Final consumption expenditure, National currency, current prices, quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P31S14_S15VNBQRSA</t>
+          <t>P3S1CQR</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2022</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Millions of Saudi Riyal</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -937,17 +929,15 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>2010</v>
-      </c>
+          <t>Disposable income, saving and net lending/net borrowing</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -960,52 +950,48 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q456P3S13GCU.q</t>
+          <t>A918P3S1CQS.a</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data008</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>General government final consumption expenditure, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
+          <t>Final consumption expenditure, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>P3S13GCUMSA</t>
+          <t>P3S1CQRSA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2022</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1013,12 +999,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
+          <t>Disposable income, saving and net lending/net borrowing</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1034,7 +1020,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q456P3S13VQS.q</t>
+          <t>Q918P3145BCQR.q</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1044,17 +1030,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>General government final consumption expenditure, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+          <t>Private final consumption expenditure by durability, National currency, current prices, quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P3S13VNBQRSA</t>
+          <t>P31S14_S15BCQR</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1064,7 +1050,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2010-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1074,12 +1060,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Millions of Saudi Riyal</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1087,17 +1073,15 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>2010</v>
-      </c>
+          <t>Private final consumption expenditure by durability</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1110,7 +1094,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q456P3VQS.q</t>
+          <t>Q918P3145BLNQ.q</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1120,17 +1104,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Final consumption expenditure, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+          <t>Private final consumption expenditure by durability, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P3VNBQRSA</t>
+          <t>P31S14_S15BLNBQR</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1140,7 +1124,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2010-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1150,12 +1134,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Millions of Saudi Riyal</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1163,16 +1147,16 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
+          <t>Private final consumption expenditure by durability</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="12">
@@ -1186,7 +1170,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q456P51GCU.q</t>
+          <t>Q918P315BCQR.q</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1196,17 +1180,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>data007</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, current prices, quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P51GCUMSA</t>
+          <t>P31S15BCQR</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1216,7 +1200,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2020-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1226,12 +1210,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1239,12 +1223,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
+          <t>Private final consumption expenditure by durability</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
@@ -1260,7 +1244,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q456P51VQS.q</t>
+          <t>Q918P315BLNQ.q</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1270,17 +1254,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>data008</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+          <t>Final consumption expenditure of non-profit institutions serving households, National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>P51VNBQRSA</t>
+          <t>P31S15BLNBQR</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1290,7 +1274,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2010-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1300,12 +1284,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Millions of Saudi Riyal</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1313,16 +1297,16 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
+          <t>Private final consumption expenditure by durability</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="14">
@@ -1336,7 +1320,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q456P52P53VQS.q</t>
+          <t>Q918P31NCCQR.q</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1346,17 +1330,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>data009</t>
+          <t>data005</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Changes in inventories and acquisitions less disposals of valuables, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+          <t>Households consumption expenditure (National Concept), National currency, current prices, quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>P52_P53VNBQRSA</t>
+          <t>P31NCCQR</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1366,7 +1350,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2010-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1376,12 +1360,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Millions of Saudi Riyal</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1389,17 +1373,15 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>2010</v>
-      </c>
+          <t>Private final consumption expenditure by durability</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1412,7 +1394,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q456P5VQS.q</t>
+          <t>Q918P31NCLNQ.q</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1422,17 +1404,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>data010</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gross capital formation, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
+          <t>Households consumption expenditure (National Concept), National currency, chained volume estimates, national reference year(2015), quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>P5VNBQRSA</t>
+          <t>P31NCLNBQR</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1442,7 +1424,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2010-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1452,12 +1434,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Millions of Saudi Riyal</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1465,16 +1447,16 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
+          <t>Private final consumption expenditure by durability</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="16">
@@ -1488,7 +1470,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q456P6GCU.q</t>
+          <t>Q918P3S1CQR.q</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1498,17 +1480,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>data011</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Exports of goods and services, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
+          <t>Final consumption expenditure, National currency, current prices, quarterly levels, Millions of Bulgarian Lev - Bulgaria</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>P6GCUMSA</t>
+          <t>P3S1CQR</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1518,7 +1500,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2020-Q1</t>
+          <t>1995-Q1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1528,12 +1510,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Millions of Bulgarian Lev</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1541,537 +1523,15 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Gross domestic product - expenditure approach</t>
+          <t>Disposable income, saving and net lending/net borrowing</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Q456P6VQS.q</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>data012</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Exports of goods and services, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P6VNBQRSA</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Millions of Saudi Riyal</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>SAU</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>16</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Q456P7GCU.q</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>data013</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Imports of goods and services, Cumulative growth based on seasonally adjusted volume data, percentage change on Q4-2019, Units of Percentage - Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>P7GCUMSA</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Units of Percentage</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>SAU</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>17</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Q456P7VQS.q</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>data014</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Imports of goods and services, National currency, constant prices, national base year(2010), quarterly levels, seasonally adjusted, Millions of Saudi Riyal - Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>P7VNBQRSA</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Millions of Saudi Riyal</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>SAU</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>18</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Gross domestic product - expenditure approach</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Q727D2S1CQR.q</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>data015</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Taxes on production and imports, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>D2S1CQR</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Millions of Euro</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>EU27_2020</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>19</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Gross domestic product - income approach</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Q727D2S1CQS.q</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>data016</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Taxes on production and imports, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>D2S1CQRSA</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Millions of Euro</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>EU27_2020</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>20</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Gross domestic product - income approach</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Q727D3S1CQR.q</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>data017</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Subsidies on production and imports, National currency, current prices, quarterly levels, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>D3S1CQR</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Millions of Euro</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>EU27_2020</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>21</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Gross domestic product - income approach</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>QNIA</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Q727D3S1CQS.q</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>data018</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Subsidies on production and imports, National currency, current prices, quarterly levels, seasonally adjusted, Millions of Euro - European Union – 27 countries (from 01/02/2020)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>D3S1CQRSA</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2023-Q3</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Millions of Euro</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>EU27_2020</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>22</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Gross domestic product - income approach</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
